--- a/Standard_Library_TestCase_ContentUtil.xlsx
+++ b/Standard_Library_TestCase_ContentUtil.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Thinkapd\Desktop\config\实用工具类\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\11\-\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
   <si>
     <t>Test Environment</t>
   </si>
@@ -228,10 +228,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>doc</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>对象有附件</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -511,11 +507,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>deleteContentByFileName(ContentHolder holder1,
-   String fileName)</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve"> getAttachmentName(WTObject obj)</t>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
@@ -762,6 +753,57 @@
   </si>
   <si>
     <t>holder， 路径，文件名</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteContentByFileName(ContentHolder holder1,
+   String fileName)</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>doc，附件名</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>只删除这个一个附件</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>9.txt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>删除</t>
+    </r>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>getDocumentByNumber("CPKF00000175")</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>"9.txt"</t>
+    </r>
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
 </sst>
@@ -2223,8 +2265,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2276,29 +2318,29 @@
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="D4" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="E4" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="34" t="s">
+      <c r="G4" s="20" t="s">
         <v>29</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>30</v>
       </c>
       <c r="H4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="14"/>
       <c r="J4" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="19.5" customHeight="1">
@@ -2307,26 +2349,26 @@
         <v>21</v>
       </c>
       <c r="C5" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="D5" s="32" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="34" t="s">
+      <c r="G5" s="34" t="s">
         <v>36</v>
-      </c>
-      <c r="G5" s="34" t="s">
-        <v>37</v>
       </c>
       <c r="H5" s="15" t="s">
         <v>3</v>
       </c>
       <c r="I5" s="14"/>
       <c r="J5" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="25.5" customHeight="1" thickBot="1">
@@ -2334,57 +2376,57 @@
         <v>2</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C6" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="33" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E6" s="33" t="s">
+      <c r="F6" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="F6" s="34" t="s">
-        <v>41</v>
-      </c>
       <c r="G6" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>3</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="18.75" customHeight="1" thickBot="1">
       <c r="A7" s="13"/>
       <c r="B7" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="29" t="s">
+      <c r="F7" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="34" t="s">
-        <v>48</v>
-      </c>
       <c r="G7" s="20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="H7" s="23" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="25.5">
@@ -2392,27 +2434,27 @@
         <v>3</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C8" s="28" t="s">
         <v>22</v>
       </c>
       <c r="D8" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="33" t="s">
         <v>51</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="F8" s="34" t="s">
         <v>52</v>
       </c>
-      <c r="F8" s="34" t="s">
-        <v>53</v>
-      </c>
       <c r="G8" s="34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H8" s="15"/>
       <c r="I8" s="14"/>
       <c r="J8" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="24.75" customHeight="1">
@@ -2434,27 +2476,27 @@
         <v>4</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D10" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="F10" s="34" t="s">
         <v>59</v>
       </c>
-      <c r="F10" s="34" t="s">
+      <c r="G10" s="36" t="s">
         <v>60</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>61</v>
       </c>
       <c r="H10" s="23"/>
       <c r="I10" s="25"/>
       <c r="J10" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="13.5" thickBot="1">
@@ -2472,51 +2514,51 @@
     <row r="12" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A12" s="13"/>
       <c r="B12" s="30" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="32" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="F12" s="34" t="s">
+      <c r="G12" s="34" t="s">
         <v>64</v>
-      </c>
-      <c r="G12" s="34" t="s">
-        <v>65</v>
       </c>
       <c r="H12" s="23"/>
       <c r="I12" s="25"/>
       <c r="J12" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A13" s="13"/>
       <c r="B13" s="30"/>
       <c r="C13" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="32" t="s">
-        <v>68</v>
-      </c>
       <c r="E13" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F13" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H13" s="23"/>
       <c r="I13" s="25"/>
       <c r="J13" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
@@ -2526,21 +2568,21 @@
         <v>24</v>
       </c>
       <c r="D14" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="E14" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="F14" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="F14" s="34" t="s">
+      <c r="G14" s="34" t="s">
         <v>75</v>
-      </c>
-      <c r="G14" s="34" t="s">
-        <v>76</v>
       </c>
       <c r="H14" s="23"/>
       <c r="I14" s="25"/>
       <c r="J14" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
@@ -2548,10 +2590,10 @@
         <v>5</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="32"/>
       <c r="E15" s="33" t="s">
@@ -2569,110 +2611,116 @@
       <c r="A16" s="13"/>
       <c r="B16" s="30"/>
       <c r="C16" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="D16" s="32" t="s">
-        <v>79</v>
-      </c>
       <c r="E16" s="33" t="s">
-        <v>27</v>
-      </c>
-      <c r="F16" s="34"/>
-      <c r="G16" s="20"/>
+        <v>108</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="H16" s="23"/>
       <c r="I16" s="25"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="24" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A17" s="13">
         <v>6</v>
       </c>
       <c r="B17" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E17" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>87</v>
       </c>
-      <c r="C17" s="28" t="s">
-        <v>80</v>
-      </c>
-      <c r="D17" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="F17" s="34" t="s">
-        <v>89</v>
-      </c>
       <c r="G17" s="20" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="25"/>
       <c r="J17" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="30"/>
       <c r="C18" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" s="33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F18" s="34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="25"/>
       <c r="J18" s="24" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="30"/>
       <c r="C19" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D19" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="G19" s="20" t="s">
         <v>101</v>
-      </c>
-      <c r="F19" s="34" t="s">
-        <v>102</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>103</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="25"/>
       <c r="J19" s="24" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="30"/>
       <c r="C20" s="28" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D20" s="32" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E20" s="33" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F20" s="34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="23"/>

--- a/Standard_Library_TestCase_ContentUtil.xlsx
+++ b/Standard_Library_TestCase_ContentUtil.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884" activeTab="1"/>
+    <workbookView xWindow="-15" yWindow="4455" windowWidth="12510" windowHeight="4395" tabRatio="884"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="113">
   <si>
     <t>Test Environment</t>
   </si>
@@ -498,10 +498,6 @@
     <phoneticPr fontId="30" type="noConversion"/>
   </si>
   <si>
-    <t>deleteContents(wtDocument);</t>
-    <phoneticPr fontId="30" type="noConversion"/>
-  </si>
-  <si>
     <t>updatePrimaryContent(WTDocument doc,
    String filePath, String fileName)</t>
     <phoneticPr fontId="30" type="noConversion"/>
@@ -805,6 +801,14 @@
       <t>"9.txt"</t>
     </r>
     <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>deleteContents(wtDocument);</t>
+    <phoneticPr fontId="30" type="noConversion"/>
+  </si>
+  <si>
+    <t>hq_VM</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2100,8 +2104,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2195,7 +2199,9 @@
       <c r="B9" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="7"/>
+      <c r="C9" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6"/>
@@ -2265,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D2" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -2318,7 +2324,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C4" s="28" t="s">
         <v>4</v>
@@ -2376,7 +2382,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>38</v>
@@ -2476,7 +2482,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>81</v>
+        <v>111</v>
       </c>
       <c r="C10" s="28" t="s">
         <v>61</v>
@@ -2514,7 +2520,7 @@
     <row r="12" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A12" s="13"/>
       <c r="B12" s="30" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C12" s="28" t="s">
         <v>65</v>
@@ -2590,7 +2596,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="28" t="s">
         <v>76</v>
@@ -2617,18 +2623,18 @@
         <v>78</v>
       </c>
       <c r="E16" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="F16" s="34" t="s">
+      <c r="G16" s="20" t="s">
         <v>109</v>
-      </c>
-      <c r="G16" s="20" t="s">
-        <v>110</v>
       </c>
       <c r="H16" s="23"/>
       <c r="I16" s="25"/>
       <c r="J16" s="24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
@@ -2636,91 +2642,91 @@
         <v>6</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C17" s="28" t="s">
         <v>79</v>
       </c>
       <c r="D17" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E17" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="F17" s="34" t="s">
-        <v>87</v>
-      </c>
       <c r="G17" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="H17" s="23"/>
       <c r="I17" s="25"/>
       <c r="J17" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A18" s="13"/>
       <c r="B18" s="30"/>
       <c r="C18" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D18" s="32" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E18" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18" s="34" t="s">
         <v>88</v>
       </c>
-      <c r="F18" s="34" t="s">
-        <v>89</v>
-      </c>
       <c r="G18" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H18" s="23"/>
       <c r="I18" s="25"/>
       <c r="J18" s="24" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="30"/>
       <c r="C19" s="28" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D19" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E19" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="F19" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="34" t="s">
+      <c r="G19" s="20" t="s">
         <v>100</v>
-      </c>
-      <c r="G19" s="20" t="s">
-        <v>101</v>
       </c>
       <c r="H19" s="23"/>
       <c r="I19" s="25"/>
       <c r="J19" s="24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="12.75" customHeight="1" thickBot="1">
       <c r="A20" s="13"/>
       <c r="B20" s="30"/>
       <c r="C20" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="E20" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="E20" s="33" t="s">
-        <v>106</v>
-      </c>
       <c r="F20" s="34" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G20" s="20"/>
       <c r="H20" s="23"/>
